--- a/Mods.xlsx
+++ b/Mods.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Mystics-Monstrosity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE7A20A-DE24-4D10-BA7F-63EABAB68FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92035238-3BE4-4491-9785-D6695ECCDE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3990" windowWidth="20535" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="3045" windowWidth="20535" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19497,10 +19497,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19759,19 +19755,19 @@
   <dimension ref="A1:H1787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1739" sqref="E1739"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.375" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="51.625" customWidth="1"/>
-    <col min="5" max="5" width="42.75" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="5" max="5" width="34.75" customWidth="1"/>
     <col min="6" max="6" width="80.75" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="49.875" customWidth="1"/>
+    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.875" customWidth="1"/>
     <col min="10" max="13" width="8"/>
   </cols>
   <sheetData>
@@ -21933,7 +21929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>3897</v>
       </c>
@@ -24065,7 +24061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>3426</v>
       </c>
@@ -24091,7 +24087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>2479</v>
       </c>
@@ -24117,7 +24113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>3700</v>
       </c>
@@ -25183,7 +25179,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>3649</v>
       </c>
@@ -26405,7 +26401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>347</v>
       </c>
@@ -27549,7 +27545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>4795</v>
       </c>
@@ -27679,7 +27675,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>965</v>
       </c>
@@ -28225,7 +28221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>6206</v>
       </c>
@@ -28537,7 +28533,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>3589</v>
       </c>
@@ -28875,7 +28871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>1050</v>
       </c>
@@ -29213,7 +29209,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>5098</v>
       </c>
@@ -29369,7 +29365,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>4726</v>
       </c>
@@ -29629,7 +29625,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>3759</v>
       </c>
@@ -29941,7 +29937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>6052</v>
       </c>
@@ -30643,7 +30639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>1737</v>
       </c>
@@ -33789,7 +33785,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
         <v>3089</v>
       </c>
@@ -34049,7 +34045,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
         <v>3049</v>
       </c>
@@ -34179,7 +34175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="s">
         <v>3547</v>
       </c>
@@ -34387,7 +34383,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
         <v>5523</v>
       </c>
@@ -34595,7 +34591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="s">
         <v>1441</v>
       </c>
@@ -35011,7 +35007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="s">
         <v>1288</v>
       </c>
@@ -35219,7 +35215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A595" s="2" t="s">
         <v>3825</v>
       </c>
@@ -37689,7 +37685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A690" s="2" t="s">
         <v>1565</v>
       </c>
@@ -38131,7 +38127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A707" s="2" t="s">
         <v>2888</v>
       </c>
@@ -38209,7 +38205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A710" s="2" t="s">
         <v>3423</v>
       </c>
@@ -38313,7 +38309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A714" s="2" t="s">
         <v>2885</v>
       </c>
@@ -39093,7 +39089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A744" s="2" t="s">
         <v>319</v>
       </c>
@@ -39119,7 +39115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A745" s="2" t="s">
         <v>5297</v>
       </c>
@@ -39145,7 +39141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="746" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A746" s="2" t="s">
         <v>2699</v>
       </c>
@@ -41147,7 +41143,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A823" s="2" t="s">
         <v>4092</v>
       </c>
@@ -41199,7 +41195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A825" s="2" t="s">
         <v>3484</v>
       </c>
@@ -41225,7 +41221,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A826" s="2" t="s">
         <v>486</v>
       </c>
@@ -41433,7 +41429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A834" s="2" t="s">
         <v>4251</v>
       </c>
@@ -41953,7 +41949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A854" s="2" t="s">
         <v>686</v>
       </c>
@@ -43513,7 +43509,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A914" s="2" t="s">
         <v>1608</v>
       </c>
@@ -43669,7 +43665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A920" s="2" t="s">
         <v>2789</v>
       </c>
@@ -44033,7 +44029,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A934" s="2" t="s">
         <v>2019</v>
       </c>
@@ -44683,7 +44679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A959" s="2" t="s">
         <v>4786</v>
       </c>
@@ -45047,7 +45043,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="973" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A973" s="2" t="s">
         <v>3110</v>
       </c>
@@ -45125,7 +45121,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A976" s="2" t="s">
         <v>5840</v>
       </c>
@@ -45203,7 +45199,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A979" s="2" t="s">
         <v>4853</v>
       </c>
@@ -46061,7 +46057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1012" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1012" s="2" t="s">
         <v>167</v>
       </c>
@@ -46321,7 +46317,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="1022" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1022" s="2" t="s">
         <v>5340</v>
       </c>
@@ -46555,7 +46551,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="1031" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1031" s="2" t="s">
         <v>4106</v>
       </c>
@@ -46607,7 +46603,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="1033" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1033" s="2" t="s">
         <v>1333</v>
       </c>
@@ -47725,7 +47721,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="1076" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1076" s="2" t="s">
         <v>4920</v>
       </c>
@@ -47803,7 +47799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1079" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1079" s="2" t="s">
         <v>5988</v>
       </c>
@@ -48141,7 +48137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1092" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1092" s="2" t="s">
         <v>2108</v>
       </c>
@@ -48219,7 +48215,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="1095" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1095" s="2" t="s">
         <v>2642</v>
       </c>
@@ -48245,7 +48241,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="1096" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1096" s="2" t="s">
         <v>6084</v>
       </c>
@@ -48479,7 +48475,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1105" s="2" t="s">
         <v>5011</v>
       </c>
@@ -48609,7 +48605,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="1110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1110" s="2" t="s">
         <v>1118</v>
       </c>
@@ -48661,7 +48657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1112" s="2" t="s">
         <v>4340</v>
       </c>
@@ -49467,7 +49463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1143" s="2" t="s">
         <v>3691</v>
       </c>
@@ -49987,7 +49983,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1163" s="2" t="s">
         <v>3772</v>
       </c>
@@ -50065,7 +50061,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1166" s="2" t="s">
         <v>4957</v>
       </c>
@@ -50091,7 +50087,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="1167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1167" s="2" t="s">
         <v>5921</v>
       </c>
@@ -51079,7 +51075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1205" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1205" s="2" t="s">
         <v>3829</v>
       </c>
@@ -51261,7 +51257,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1212" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1212" s="2" t="s">
         <v>4653</v>
       </c>
@@ -51911,7 +51907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1237" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1237" s="2" t="s">
         <v>4170</v>
       </c>
@@ -52093,7 +52089,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="1244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1244" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1244" s="2" t="s">
         <v>5617</v>
       </c>
@@ -52353,7 +52349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1254" s="2" t="s">
         <v>1380</v>
       </c>
@@ -52457,7 +52453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1258" s="2" t="s">
         <v>4039</v>
       </c>
@@ -52535,7 +52531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1261" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1261" s="2" t="s">
         <v>608</v>
       </c>
@@ -52899,7 +52895,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="1275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1275" s="2" t="s">
         <v>5750</v>
       </c>
@@ -53549,7 +53545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1300" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1300" s="2" t="s">
         <v>3765</v>
       </c>
@@ -55031,7 +55027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1357" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1357" s="2" t="s">
         <v>2230</v>
       </c>
@@ -55135,7 +55131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1361" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1361" s="2" t="s">
         <v>5855</v>
       </c>
@@ -55499,7 +55495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1375" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1375" s="2" t="s">
         <v>1232</v>
       </c>
@@ -55577,7 +55573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1378" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1378" s="2" t="s">
         <v>5150</v>
       </c>
@@ -55603,7 +55599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1379" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1379" s="2" t="s">
         <v>5432</v>
       </c>
@@ -55655,7 +55651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1381" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1381" s="2" t="s">
         <v>4472</v>
       </c>
@@ -56825,7 +56821,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="1426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1426" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1426" s="2" t="s">
         <v>355</v>
       </c>
@@ -57111,7 +57107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1437" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1437" s="2" t="s">
         <v>1781</v>
       </c>
@@ -57137,7 +57133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1438" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1438" s="2" t="s">
         <v>5494</v>
       </c>
@@ -57813,7 +57809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1464" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1464" s="2" t="s">
         <v>5309</v>
       </c>
@@ -57943,7 +57939,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="1469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1469" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1469" s="2" t="s">
         <v>4475</v>
       </c>
@@ -58177,7 +58173,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="1478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1478" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1478" s="2" t="s">
         <v>5644</v>
       </c>
@@ -58307,7 +58303,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1483" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1483" s="2" t="s">
         <v>4604</v>
       </c>
@@ -58697,7 +58693,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="1498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1498" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1498" s="2" t="s">
         <v>534</v>
       </c>
@@ -58879,7 +58875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1505" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1505" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1505" s="2" t="s">
         <v>2547</v>
       </c>
@@ -59711,7 +59707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1537" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1537" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1537" s="2" t="s">
         <v>179</v>
       </c>
@@ -59737,7 +59733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1538" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1538" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1538" s="2" t="s">
         <v>1874</v>
       </c>
@@ -60803,7 +60799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1579" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1579" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1579" s="2" t="s">
         <v>1785</v>
       </c>
@@ -61453,7 +61449,7 @@
         <v>4737</v>
       </c>
     </row>
-    <row r="1604" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1604" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1604" s="2" t="s">
         <v>1339</v>
       </c>
@@ -62103,7 +62099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1629" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1629" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1629" s="2" t="s">
         <v>1789</v>
       </c>
@@ -62519,7 +62515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1645" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1645" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1645" s="2" t="s">
         <v>1546</v>
       </c>
@@ -62753,7 +62749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1654" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1654" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1654" s="2" t="s">
         <v>2965</v>
       </c>
@@ -63481,7 +63477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1682" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1682" s="2" t="s">
         <v>1774</v>
       </c>
@@ -63559,7 +63555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1685" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1685" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1685" s="2" t="s">
         <v>545</v>
       </c>
@@ -64001,7 +63997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1702" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1702" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1702" s="2" t="s">
         <v>5469</v>
       </c>
@@ -64079,7 +64075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1705" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1705" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1705" s="2" t="s">
         <v>5756</v>
       </c>
@@ -64599,7 +64595,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="1725" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1725" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1725" s="2" t="s">
         <v>1915</v>
       </c>
@@ -64937,7 +64933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1738" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1738" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1738" s="2" t="s">
         <v>6145</v>
       </c>
@@ -65197,7 +65193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1748" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1748" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1748" s="2" t="s">
         <v>1624</v>
       </c>
@@ -65925,7 +65921,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1776" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1776" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1776" s="2" t="s">
         <v>577</v>
       </c>
@@ -65951,7 +65947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1777" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1777" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1777" s="2" t="s">
         <v>3715</v>
       </c>
@@ -66029,7 +66025,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1780" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1780" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1780" s="2" t="s">
         <v>6173</v>
       </c>
